--- a/analyses/output/freezexp_muoutput_manual.xlsx
+++ b/analyses/output/freezexp_muoutput_manual.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/analyses/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2F15D268-5406-704C-B432-1A1CDFB90BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D16904-7E8E-5341-88E8-1CEFCAD916E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="460" windowWidth="29360" windowHeight="19520"/>
+    <workbookView xWindow="19500" yWindow="460" windowWidth="29360" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="freezexp_cat" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="52">
   <si>
     <t>DVR</t>
   </si>
@@ -78,13 +78,112 @@
   </si>
   <si>
     <t>outlier_species</t>
+  </si>
+  <si>
+    <t>yes - SALPUR</t>
+  </si>
+  <si>
+    <t>gslength</t>
+  </si>
+  <si>
+    <t>SORAME is marginal and shorter</t>
+  </si>
+  <si>
+    <t>ACESAC and SORAME for 90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORAME </t>
+  </si>
+  <si>
+    <t>htdifffinal</t>
+  </si>
+  <si>
+    <t>ACESAC and SALPUR - less effect</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>more growth</t>
+  </si>
+  <si>
+    <t>CORRAC had increased growth</t>
+  </si>
+  <si>
+    <t>no longer see increased effects from chilling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meristem </t>
+  </si>
+  <si>
+    <t>BETPOP and SORAME for 90%</t>
+  </si>
+  <si>
+    <t>VIBDEN</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>ACESAC, ALNRUG and SALPUR have less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marginal </t>
+  </si>
+  <si>
+    <t>ACESAC, SORAME and VIBDEN have more</t>
+  </si>
+  <si>
+    <t>increased thickness</t>
+  </si>
+  <si>
+    <t>decreased thickness</t>
+  </si>
+  <si>
+    <t>toughness</t>
+  </si>
+  <si>
+    <t>CORRAC had less of an effect with 90%</t>
+  </si>
+  <si>
+    <t>lower toughness with increased chilling…</t>
+  </si>
+  <si>
+    <t>ACESAC, SALPUR and VIBDEN had increased toughness with 90%</t>
+  </si>
+  <si>
+    <t>ALNRUG, BETPAP and SORAME had decreased toughness</t>
+  </si>
+  <si>
+    <t>totbiomass</t>
+  </si>
+  <si>
+    <t>ALNRUG, BETPOP and SALPUR didn't increase</t>
+  </si>
+  <si>
+    <t>roottoshoot</t>
+  </si>
+  <si>
+    <t>SALPUR overlaps</t>
+  </si>
+  <si>
+    <t>less root growth</t>
+  </si>
+  <si>
+    <t>ALNRUG, CORRAC and VIBDEN overlap</t>
+  </si>
+  <si>
+    <t>ACESAC and BETPAP had increased root growth but CORRAC had decresed root growth - all for 90%</t>
+  </si>
+  <si>
+    <t>CORRAC had decreased root growth for 50%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +314,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -561,8 +667,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,16 +1024,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +1049,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -957,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -984,8 +1094,11 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1011,6 +1124,571 @@
       </c>
       <c r="D6" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
